--- a/Status.xlsx
+++ b/Status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,10 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>coleccion -Con Entregable</t>
+          <t>coleccion -Sin Entregable</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>coleccion -Sin Entregable</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>coleccion - Con trazo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>coleccion - Sin Trazo</t>
         </is>
@@ -458,284 +448,278 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#10 THE POWER OF THE SEA MINI DRESS-YAMI</t>
+          <t>PATRONES</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DRESS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>#10 THE POWER OF THE SEA MINI DRESS-YAMI</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DRESS</t>
+          <t>PATRONES</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#113 BLACK KILIMANJARO</t>
+          <t>ARTES DE MODIFICACION DE ARTE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#6 WEAVING WEVES ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>#113 BLACK KILIMANJARO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>#6 WEAVING WEVES ANKLE DRESS</t>
+          <t>ARTES DE MODIFICACION DE ARTE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#114 ECRU KILIMANJARU</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>#114 ECRU KILIMANJARU</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#15 HARBOR HUES ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>#15 HARBOR HUES ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>DRESS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DRESS</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#18 LOS SIETE MARES ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>#18 LOS SIETE MARES ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#51 FANCY SEA MAXI DRESS - ANDRE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>#51 FANCY SEA MAXI DRESS - ANDRE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#30 UNDER THE SEA MIDI DRESS</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>#30 UNDER THE SEA MIDI DRESS</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>PANT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PANT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#31 THE RHYTHM OF SEA ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>#31 THE RHYTHM OF SEA ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>SHIRT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SHIRT</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#41 SEA SWIRL ANKLE DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>#41 SEA SWIRL ANKLE DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>SKIRT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SKIRT</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#45 TACTILE WINDS ANKLE DRES- C DUQUE</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>#45 TACTILE WINDS ANKLE DRES- C DUQUE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>T-SHIRT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>T-SHIRT</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#5 TIDE STRENGHT MINI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>#5 TIDE STRENGHT MINI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#53 SAILING FLAGS ANKLE DRESS-LUZKA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>#53 SAILING FLAGS ANKLE DRESS-LUZKA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>TUNIC DRESS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TUNIC DRESS</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#70 OCEAN LAYERS ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>#70 OCEAN LAYERS ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#121 COLLAR DXF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>#121 COLLAR DXF</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#71 CORY REEFS ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>#71 CORY REEFS ANKLE DRESS</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>FABRIC 2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FABRIC 2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#72 GREEN MOOD MAXI DRESS</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>#72 GREEN MOOD MAXI DRESS</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>INTERFACING</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTERFACING</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#73  OCEANIC MANTRA  DRESS-YAMI</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>#73  OCEANIC MANTRA  DRESS-YAMI</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#76 BEACH HARMONY ANKLE DRESS - C DUQUE</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>#76 BEACH HARMONY ANKLE DRESS - C DUQUE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#24 COLLAR DXF</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>#24 COLLAR DXF</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#77 HEART PIRATE MINI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>#77 HEART PIRATE MINI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>FABRIC 2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FABRIC 2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#79 METEORITO DEL MAR MAXI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>#79 METEORITO DEL MAR MAXI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>INTERFACING</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INTERFACING</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#9 TACTILE WINDS MAXI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>#9 TACTILE WINDS MAXI DRESS- C DUQUE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#79 COLLAR -NECKLACE DXF</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>#79 COLLAR -NECKLACE DXF</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FUSIONABLE-INTERFACING</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FUSIONABLE-INTERFACING</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PLANTILLA - TEMPLATE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PLANTILLA - TEMPLATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TELA 2-FABRIC 2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TELA 2-FABRIC 2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>coleccion -Con Entregable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>coleccion -Sin Entregable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>coleccion - Sin Trazo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PATRONES</t>
+          <t>#19 LINES ECRUNAVY ENTORCHE DEL MAR BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,266 +460,810 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARTES DE MODIFICACION DE ARTE</t>
+          <t>#20 LINES ECRU-NAVY MARIENRA BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARTES DE MODIFICACION DE ARTE</t>
+          <t>ARTES DE MODIFICACION</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAPE</t>
+          <t>#48 PALMS MARINERA BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAPE</t>
+          <t>BIKINI BOTTOM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DRESS</t>
+          <t>#55 LINES ECRU-RED MARINERA BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DRESS</t>
+          <t>canceladas</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#51 FANCY SEA MAXI DRESS - ANDRE</t>
+          <t>#86 BLACK MARINERA BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#51 FANCY SEA MAXI DRESS - ANDRE</t>
+          <t>BIKINI TOP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PANT</t>
+          <t>#93 TERRACOTA ENTORCHE DEL MAR BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PANT</t>
+          <t>VIDEO MONTAJE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SHIRT</t>
+          <t>#95 PALMS ENTORCHE DEL MAR BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SHIRT</t>
+          <t>VIDEO MONTAJE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SKIRT</t>
+          <t>#98 LINES ECRURED ENTORCHE DEL MAR BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SKIRT</t>
+          <t>VIDEO MONTAJE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T-SHIRT</t>
+          <t>#100 PALMS ECRUNAVY MAINSAIL BIKINI BOTTOM-  C DUQUE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T-SHIRT</t>
+          <t>canceladas</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>#99 PALMS ECRU-NAVY MARINERA BIKINI BOTTOM- C DUQUE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>DRESS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TUNIC DRESS</t>
+          <t>#21 ECRUNAVY BANDANA MARINA BIKINI TOP- C DUQUE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TUNIC DRESS</t>
+          <t>#49 WATER ADVENTURE ANKLE DRESS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#121 COLLAR DXF</t>
+          <t>#36 BOLERO LIFE BIKINI TOP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#121 COLLAR DXF</t>
+          <t>#6 WEAVING WEVES ANKLE DRESS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FABRIC 2</t>
+          <t>#37 BLACK SEA SPRITE BIKINI TOP- C DUQUE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FABRIC 2</t>
+          <t>KIMONO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INTERFACING</t>
+          <t>#39 ECRU SEA SPRITE BIKINI TOP - YAMI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INTERFACING</t>
+          <t>ONEPIECE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TEMPLATE</t>
+          <t>#47 PALMS SEA SPRITE BIKINI TOP- C DUQUE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TEMPLATE</t>
+          <t>#26 THE CLASSIC ONE PEACE- CINTURON</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#24 COLLAR DXF</t>
+          <t>#51 SEA CLOUD BIKINI TOP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#24 COLLAR DXF</t>
+          <t>PANT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FABRIC 2</t>
+          <t>#54 ECRU RED BANDANA MARINA BIKINI TOP-  C DUQUE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FABRIC 2</t>
+          <t>PANTY</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INTERFACING</t>
+          <t>#56 ECRU TILLER BIKINI TOP-YAMI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTERFACING</t>
+          <t>REPROGRAMACIONES</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TEMPLATE</t>
+          <t>#58 TRAGA LUZ BIKINI TOP-YAMI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TEMPLATE</t>
+          <t>SHORT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#79 COLLAR -NECKLACE DXF</t>
+          <t>#61 MILITARY SEA SPRITE BIKINI TOP-YAMI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#79 COLLAR -NECKLACE DXF</t>
+          <t>SHIRT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FUSIONABLE-INTERFACING</t>
+          <t>#62 TERRACOTA SECOND NATURE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FUSIONABLE-INTERFACING</t>
+          <t>SKIRT</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PLANTILLA - TEMPLATE</t>
+          <t>#101 PALMS ECRU NAVY SEA SPRITE BIKINI TOP- C DUQUE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANTILLA - TEMPLATE</t>
+          <t>#102 TERRACOTA BREATH OF LIFE MIDI SKIRT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TELA 2-FABRIC 2</t>
+          <t>#10 THE POWER OF THE SEA MINI DRESS-YAMI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TELA 2-FABRIC 2</t>
-        </is>
-      </c>
+          <t>#105 LINES ECRU NAVY BREATH OF LIFE MIDI SKIRT- C DUQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>#113 BLACK KILIMANJARO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>#106 LINES ECRU RED BREATH OF LIFE MIDI SKIRT- C DUQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>#114 ECRU KILIMANJARU</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>#107 PALMS ECRU RED BREATH OF LIFE MIDI SKIRT- C DUQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>#15 HARBOR HUES ANKLE DRESS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>#32 PALMS BREATH OF LIFE MIDI SKIRT- C DUQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#18 LOS SIETE MARES ANKLE DRESS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>#85 BLACK BREATH OF LIFE MIDI SKIRT- C DUQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#30 UNDER THE SEA MIDI DRESS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>T- SHIRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>#31 THE RHYTHM OF SEA ANKLE DRESS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>#41 SEA SWIRL ANKLE DRESS- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Video para hacer drapeado y nudo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>#45 TACTILE WINDS ANKLE DRES- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TUNIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>#5 TIDE STRENGHT MINI DRESS- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>#53 SAILING FLAGS ANKLE DRESS-LUZKA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>#70 OCEAN LAYERS ANKLE DRESS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>#71 CORY REEFS ANKLE DRESS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>#72 GREEN MOOD MAXI DRESS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>#73  OCEANIC MANTRA  DRESS-YAMI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>#76 BEACH HARMONY ANKLE DRESS - C DUQUE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>#77 HEART PIRATE MINI DRESS- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>#79 METEORITO DEL MAR MAXI DRESS- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>#9 TACTILE WINDS MAXI DRESS- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>#25 THE PASSING STORM KIMONO- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>#42 SAIL SOFTY KIMONO</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>#112 SANTA CLARA ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>#12 VELA AURICA ONEPIECE</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>#13 SEA SALT ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>#16 NAVY-ECRU ALTA MAR ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>#26 THE CLASSIC ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>#35 ECRU WHISPERING TIDES</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>#44 GOLD SUNNY DAYS ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>#46 ECRU-RED ALTA MAR ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>#68 PALMY TEXTURE ONEPIECE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>#8 MILITARY WHISPERING TIDES ONEPIECE</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>#80 BOLEROS Y VELEROS ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>#81 WINE LEE SIDE ONEPIECE</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>#82 WINE SUNNY DAYS  ONEPIECE- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>#87 RED CORAL REEF ONEPIECE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>#43 PALMS AND SHADOWS PANTS- OSMAN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>#66 SPEED QUEEN PANT-OSMAN</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>#38 ECRU MARINERA BIKINI BOTTOM</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>#40 ECRU ENTORCHE DEL MAR BIKINI BOTTOM - copia</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>#59 SEAFARING STYLE BIKINI BOTTOM</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>#60 MILITAR MARINERA BIKINI BOTTOM</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>#63 SCHOONER BIKINI BOTTOM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>#94 SWIM THE SEA BIKINI BOTTOM - copia</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>#97 MILITAR ENTORCHE DEL MAR BIKINI BOTTOM - copia</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>#111 ANCHORING SHORT- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>#67 SALTY PROMISES SHIRT-OSMAN</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>#103  MILITARY BREATH OF LIFE  MIDI  SKIRT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>#104 ECRU BREATH OF LIFE  MIDI  SKIRT</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>#108 DARK MAGENTA KEEL  MIDI  SKIRT</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>#109 ECRU LIGHT AND SOUND ANKLE SKIRT - ANDRE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>#110 BLACK LIGHT AND SOUND ANKLE SKIRT - ANDRE</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>#28 VELA MAYOR SKIRT- fer</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>#33 WAVES OF DESTINY WRAP SKIRT - OSMAN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>#4 FAIR WINDS MIDI SKIRT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>#83 WINE KEEL MIDI SDIRT FER</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>#88 VELEREANDO ANDO WRAP SKIRT- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>#89 GREEN PALM BRANCH  MIDI  SKIRT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>#91 SHORE SHEER WRAP SKIRT- OSMAN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>#1 BLACK MISTY HEM T-SHIRT- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>#69 PALMS MISTY HEM T-SHIRT- C DUQUE</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>#29 NUDOS DEL MAR TOP</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>#52 AFTER SWIMMING TOP</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>#22 SOTAVIENTO TUNIC DRESS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>#65 AQUA CRUISER TUNIC DRESS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>#92 BAR TUNIC DRESS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,26 +448,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#17 EMBROIDERED JOURNEY ANKLE DRESS - OSMAN</t>
+          <t>#51 FANCY SEA MAXI DRESS - ANDRE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#17 EMBROIDERED JOURNEY ANKLE DRESS - OSMAN</t>
+          <t>#88 WESTERN WAVE MIDI SKIRT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#26 THE CLASSIC ONE PEACE- CINTURON</t>
+          <t>#138 Y #140  SLIP SKIRT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#26 THE CLASSIC ONE PEACE- CINTURON</t>
-        </is>
-      </c>
+          <t>#121 COLLAR DXF</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>#88 WESTERN WAVE MIDI SKIRT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>#24 COLLAR DXF</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>#100 BOAT LINES TOP-LUZKA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>#79 COLLAR -NECKLACE DXF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>#121 COLLAR DXF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>#24 COLLAR DXF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#79 COLLAR -NECKLACE DXF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
